--- a/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-09-20.xlsx
+++ b/WorkBot/refactor/data/orders/Webstaurant/Webstaurant_Bakery_2025-09-20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,411 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>711SPRNKLEBL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sprinkles - Blue</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>711SPRKLCH25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sprinkles - Dark Chocolate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>711SPRNKLEOR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sprinkles - Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10207579</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salt - Sea Coarse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24510105CB</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Box Cake - 10x10x5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>245885CB</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>770V9I30008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eclair Paper</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>266.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>245CCGR1410BL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cake Board - 1/4 Sheet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24510102WB</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Box Cake - 10x10x2.5 Window</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>261.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>245882WB</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Box Cake - 8x8x2.5 (window)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>68.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>137.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>150300865</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6x13.5 Window</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>159.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>150BB6218N</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bag Paper - 6.5x17.75 Window</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>104.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>314.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>130PPF0628M1M</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bag - Perforated (6x28)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>54.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>433qlinerbl</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sheet Pan Liner - White</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>131.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>656095131</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Container - Muffin (12 Pack)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>65.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>130.98</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
